--- a/public/PROGRAMAS_Y_PROYECTOS_20210131.xlsx
+++ b/public/PROGRAMAS_Y_PROYECTOS_20210131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABIOROJAS\Downloads\yopal-testing\examples-dicc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.rojas\code\produccion\csv-analyzer\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBCFFFB2-A598-447E-9679-A481116028E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE026F4-A094-4B42-9346-36695AF77B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084BC2A4-C6A0-4FBD-9E65-6311FD07BC13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21432" windowHeight="11520" xr2:uid="{084BC2A4-C6A0-4FBD-9E65-6311FD07BC13}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Anio</t>
   </si>
@@ -54,9 +45,6 @@
     <t>Valor_Proyecto</t>
   </si>
   <si>
-    <t>Duración_Proyecto</t>
-  </si>
-  <si>
     <t>Dependencia_Responsable_Proyecto</t>
   </si>
   <si>
@@ -106,6 +94,15 @@
   </si>
   <si>
     <t>2018-11-31</t>
+  </si>
+  <si>
+    <t>Duracion_Proyecto</t>
+  </si>
+  <si>
+    <t>proviene_recurso_de_reactivacion</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -154,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,12 +159,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -476,31 +479,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0BE1E4-45A5-4F04-92AB-CDD88F31B63F}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="48.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="41.5546875" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" customWidth="1"/>
-    <col min="13" max="13" width="43.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="37.44140625" customWidth="1"/>
+    <col min="13" max="13" width="43.5546875" customWidth="1"/>
     <col min="14" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="34.28515625" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,34 +524,37 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
+      <c r="P1" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -555,13 +562,13 @@
         <v>900900081</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>1000000.35</v>
@@ -570,28 +577,31 @@
         <v>180</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
